--- a/biology/Histoire de la zoologie et de la botanique/Konrad_Hermann_Heinrich_Christ/Konrad_Hermann_Heinrich_Christ.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Konrad_Hermann_Heinrich_Christ/Konrad_Hermann_Heinrich_Christ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Konrad Hermann Heinrich Christ, né le 12 décembre 1833 à Bâle et mort le 23 novembre 1933 à Riehen, est un juriste et botaniste suisse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Johann Jakob Christ - notaire et conseiller cantonal - et de Christine Christ née Hoffmann, Hermann Christ étudie le droit à l'université de Bâle et à l'université Humboldt de Berlin. Il obtient son doctorat en 1856 et son diplôme de notaire un an plus tard.
 D'abord greffier de 1859 à 1868, il exerce les fonctions de juriste et de notaire de 1869 à 1908 à Bâle.
@@ -546,7 +560,9 @@
           <t>Quelques écrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Das Pflanzenleben der Schweiz, Zürich, F. Schulhess, 1882
 téléchargeable sur Archive.org
@@ -581,7 +597,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreuses plantes ont été nommées en son honneur :
 Adiantum christii Rosenst. - Adiantacée de Nouvelle-Guinée
